--- a/biology/Botanique/Lythrum/Lythrum.xlsx
+++ b/biology/Botanique/Lythrum/Lythrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lythrum (les salicaires) est un genre de plantes appartenant à la famille des Lythracées. L'espèce la plus connue est la salicaire commune (Lythrum salicaria).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées à feuilles simples. Les fleurs sont hermaphrodites, généralement à six sépales et à six pétales. Ces derniers sont libres, de couleur rose ou pourprée. Le nombre d'étamines varie de 4 à 12. Les fruits sont des capsules. La plupart des espèces poussent dans les lieux humides ou détrempés.
 </t>
@@ -542,7 +556,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lythrum acutangulum Lag.
 Lythrum borysthenicum (Schrank) Litv.
@@ -582,7 +598,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Abeille butinant une salicaire dans la région de Volgograd
